--- a/hardware/PROD/MICB_报价_org.xlsx
+++ b/hardware/PROD/MICB_报价_org.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9990"/>
+    <workbookView windowWidth="21585" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="MICB" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83</t>
+    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83, R93, R94, R95, R96</t>
   </si>
   <si>
     <t>R 0603_L</t>
@@ -722,9 +722,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -736,11 +736,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,8 +778,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -767,29 +817,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -797,22 +826,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,27 +857,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,22 +874,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +895,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,37 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,103 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1105,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1115,6 +1130,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,30 +1191,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1177,30 +1201,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1209,10 +1209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,133 +1221,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1442,7 +1442,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1721,8 +1721,8 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1826,7 +1826,7 @@
         <v>0.03</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H34" si="0">F4*G4</f>
+        <f t="shared" ref="H3:H40" si="0">F4*G4</f>
         <v>1.98</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <f>E24*3</f>
+        <f t="shared" ref="F24:F30" si="1">E24*3</f>
         <v>3</v>
       </c>
       <c r="G24">
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f>E25*3</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G25">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f>E26*3</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G26">
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <f>E27*3</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G27">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <f>E28*3</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G28">
@@ -2456,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <f>E29*3</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G29">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <f>E30*3</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H30">
@@ -2621,7 +2621,7 @@
         <v>1.2</v>
       </c>
       <c r="H35">
-        <f>F35*G35</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
         <v>0.7</v>
       </c>
       <c r="H36">
-        <f>F36*G36</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
         <v>0.2</v>
       </c>
       <c r="H37">
-        <f>F37*G37</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>3.2</v>
       </c>
       <c r="H38">
-        <f>F38*G38</f>
+        <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <v>0.6</v>
       </c>
       <c r="H39">
-        <f>F39*G39</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
         <v>0.7</v>
       </c>
       <c r="H40">
-        <f>F40*G40</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" customFormat="1" spans="1:8">
       <c r="A44" s="5" t="s">
         <v>124</v>
       </c>
@@ -2858,14 +2858,13 @@
         <v>127</v>
       </c>
       <c r="E44" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <f>E44*3</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3464,14 +3463,14 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F67:F85" si="1">E70*3</f>
+        <f t="shared" ref="F67:F85" si="2">E70*3</f>
         <v>3</v>
       </c>
       <c r="G70">
         <v>3.8</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H67:H85" si="2">F70*G70</f>
+        <f t="shared" ref="H67:H85" si="3">F70*G70</f>
         <v>11.4</v>
       </c>
     </row>
@@ -3490,11 +3489,11 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I71" t="s">
@@ -3518,14 +3517,14 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G72">
         <v>4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -3546,14 +3545,14 @@
         <v>3</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G73">
         <v>12.5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112.5</v>
       </c>
     </row>
@@ -3574,14 +3573,14 @@
         <v>3</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G74">
         <v>0.7</v>
       </c>
       <c r="H74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
     </row>
@@ -3602,14 +3601,14 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G75">
         <v>7.5</v>
       </c>
       <c r="H75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -3630,11 +3629,11 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I76" t="s">
@@ -3658,14 +3657,14 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G77">
         <v>6</v>
       </c>
       <c r="H77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -3684,14 +3683,14 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
       <c r="H78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -3710,14 +3709,14 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G79">
         <v>9</v>
       </c>
       <c r="H79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -3736,11 +3735,11 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I80" t="s">
@@ -3762,14 +3761,14 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G81">
         <v>14</v>
       </c>
       <c r="H81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
@@ -3790,14 +3789,14 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3818,14 +3817,14 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G83">
         <v>0.5</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3846,14 +3845,14 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G84">
         <v>1.5</v>
       </c>
       <c r="H84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -3874,14 +3873,14 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G85">
         <v>0.5</v>
       </c>
       <c r="H85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
